--- a/Resultados/Infered_Model_Results.xlsx
+++ b/Resultados/Infered_Model_Results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="135">
   <si>
     <t>** NAÏVE BAYES - RESUBSTITUTION**</t>
   </si>
@@ -63,370 +63,367 @@
     <t>Class</t>
   </si>
   <si>
-    <t>0.14553990610328638</t>
-  </si>
-  <si>
-    <t>0.005248618784530387</t>
-  </si>
-  <si>
-    <t>0.7654320987654321</t>
-  </si>
-  <si>
-    <t>0.24457593688362916</t>
-  </si>
-  <si>
-    <t>0.8104868622415895</t>
+    <t>0.09624413145539906</t>
+  </si>
+  <si>
+    <t>0.0027624309392265192</t>
+  </si>
+  <si>
+    <t>0.803921568627451</t>
+  </si>
+  <si>
+    <t>0.17190775681341722</t>
+  </si>
+  <si>
+    <t>0.800334928539932</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>0.29954954954954954</t>
+  </si>
+  <si>
+    <t>0.015546918378678512</t>
+  </si>
+  <si>
+    <t>0.7037037037037037</t>
+  </si>
+  <si>
+    <t>0.42022116903633494</t>
+  </si>
+  <si>
+    <t>0.8317848317501289</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>0.9839420654911839</t>
+  </si>
+  <si>
+    <t>0.7827586206896552</t>
+  </si>
+  <si>
+    <t>0.8210719915922228</t>
+  </si>
+  <si>
+    <t>0.8951589802348897</t>
+  </si>
+  <si>
+    <t>0.8103247415964562</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>0.8153732081067722</t>
+  </si>
+  <si>
+    <t>0.6164411781143323</t>
+  </si>
+  <si>
+    <t>0.8063864750312995</t>
+  </si>
+  <si>
+    <t>0.7668897243402516</t>
+  </si>
+  <si>
+    <t>0.8116279100754852</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;- Weighted Avg.</t>
+  </si>
+  <si>
+    <t>0.2300469483568075</t>
+  </si>
+  <si>
+    <t>0.011049723756906077</t>
+  </si>
+  <si>
+    <t>0.7101449275362319</t>
+  </si>
+  <si>
+    <t>0.3475177304964539</t>
+  </si>
+  <si>
+    <t>0.820239345835603</t>
+  </si>
+  <si>
+    <t>0.44594594594594594</t>
+  </si>
+  <si>
+    <t>0.038034425319267075</t>
+  </si>
+  <si>
+    <t>0.591044776119403</t>
+  </si>
+  <si>
+    <t>0.5083440308087291</t>
+  </si>
+  <si>
+    <t>0.8390121103891232</t>
+  </si>
+  <si>
+    <t>0.9587531486146096</t>
+  </si>
+  <si>
+    <t>0.6068965517241379</t>
+  </si>
+  <si>
+    <t>0.852225020990764</t>
+  </si>
+  <si>
+    <t>0.902355904578456</t>
+  </si>
+  <si>
+    <t>0.813885209473349</t>
+  </si>
+  <si>
+    <t>0.8257538309441423</t>
+  </si>
+  <si>
+    <t>0.48173453174445346</t>
+  </si>
+  <si>
+    <t>0.8086041241705676</t>
+  </si>
+  <si>
+    <t>0.8006993711843159</t>
+  </si>
+  <si>
+    <t>0.8173116074211799</t>
+  </si>
+  <si>
+    <t>0.03755868544600939</t>
+  </si>
+  <si>
+    <t>0.002486187845303867</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.07095343680709534</t>
+  </si>
+  <si>
+    <t>0.7657169999740617</t>
+  </si>
+  <si>
+    <t>0.240990990990991</t>
+  </si>
+  <si>
+    <t>0.014714047751249307</t>
+  </si>
+  <si>
+    <t>0.66875</t>
+  </si>
+  <si>
+    <t>0.35430463576158944</t>
+  </si>
+  <si>
+    <t>0.8104603423523468</t>
+  </si>
+  <si>
+    <t>0.9852015113350125</t>
+  </si>
+  <si>
+    <t>0.8413793103448276</t>
+  </si>
+  <si>
+    <t>0.8104118104118104</t>
+  </si>
+  <si>
+    <t>0.8892994173653547</t>
+  </si>
+  <si>
+    <t>0.7913134427748343</t>
+  </si>
+  <si>
+    <t>0.8037567968363816</t>
+  </si>
+  <si>
+    <t>0.6623363427777624</t>
+  </si>
+  <si>
+    <t>0.7769236059980005</t>
+  </si>
+  <si>
+    <t>0.7444271804029499</t>
+  </si>
+  <si>
+    <t>0.7907195571542921</t>
+  </si>
+  <si>
+    <t>0.18309859154929578</t>
+  </si>
+  <si>
+    <t>0.6610169491525424</t>
+  </si>
+  <si>
+    <t>0.286764705882353</t>
+  </si>
+  <si>
+    <t>0.7778548361995176</t>
+  </si>
+  <si>
     <t>0.39414414414414417</t>
   </si>
   <si>
-    <t>0.03498056635202665</t>
-  </si>
-  <si>
-    <t>0.5813953488372093</t>
-  </si>
-  <si>
-    <t>0.46979865771812085</t>
-  </si>
-  <si>
-    <t>0.8245553646372635</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>0.9634760705289672</t>
-  </si>
-  <si>
-    <t>0.6942528735632184</t>
-  </si>
-  <si>
-    <t>0.8351528384279476</t>
-  </si>
-  <si>
-    <t>0.894736842105263</t>
-  </si>
-  <si>
-    <t>0.8111039332348939</t>
-  </si>
-  <si>
-    <t>neutral</t>
+    <t>0.038312048861743477</t>
+  </si>
+  <si>
+    <t>0.5591054313099042</t>
+  </si>
+  <si>
+    <t>0.4623513870541612</t>
+  </si>
+  <si>
+    <t>0.8130408656852299</t>
+  </si>
+  <si>
+    <t>0.9584382871536524</t>
+  </si>
+  <si>
+    <t>0.6563218390804598</t>
+  </si>
+  <si>
+    <t>0.8420470262793914</t>
+  </si>
+  <si>
+    <t>0.8964806361360625</t>
+  </si>
+  <si>
+    <t>0.7925388691044906</t>
   </si>
   <si>
     <t>0.8148788927335641</t>
   </si>
   <si>
-    <t>0.5493609514333394</t>
-  </si>
-  <si>
-    <t>0.7999651566497669</t>
-  </si>
-  <si>
-    <t>0.7796500651669765</t>
-  </si>
-  <si>
-    <t>0.8125150956915188</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;- Weighted Avg.</t>
-  </si>
-  <si>
-    <t>0.31220657276995306</t>
-  </si>
-  <si>
-    <t>0.016298342541436465</t>
-  </si>
-  <si>
-    <t>0.6927083333333334</t>
-  </si>
-  <si>
-    <t>0.43042071197411</t>
-  </si>
-  <si>
-    <t>0.8311156070863487</t>
-  </si>
-  <si>
-    <t>0.49774774774774777</t>
-  </si>
-  <si>
-    <t>0.06885063853414769</t>
-  </si>
-  <si>
-    <t>0.47121535181236673</t>
-  </si>
-  <si>
-    <t>0.484118291347207</t>
-  </si>
-  <si>
-    <t>0.8328421772688847</t>
-  </si>
-  <si>
-    <t>0.922544080604534</t>
-  </si>
-  <si>
-    <t>0.5229885057471264</t>
-  </si>
-  <si>
-    <t>0.8655834564254062</t>
-  </si>
-  <si>
-    <t>0.8931565310166133</t>
-  </si>
-  <si>
-    <t>0.8148185746547382</t>
-  </si>
-  <si>
-    <t>0.8116658428077114</t>
-  </si>
-  <si>
-    <t>0.4198033296304219</t>
-  </si>
-  <si>
-    <t>0.8041044052920862</t>
-  </si>
-  <si>
-    <t>0.7995484150192522</t>
-  </si>
-  <si>
-    <t>0.8185123500814676</t>
-  </si>
-  <si>
-    <t>0.07042253521126761</t>
-  </si>
-  <si>
-    <t>0.0060773480662983425</t>
-  </si>
-  <si>
-    <t>0.5769230769230769</t>
-  </si>
-  <si>
-    <t>0.12552301255230125</t>
-  </si>
-  <si>
-    <t>0.7754124192669831</t>
-  </si>
-  <si>
-    <t>0.34684684684684686</t>
-  </si>
-  <si>
-    <t>0.03164908384230983</t>
-  </si>
-  <si>
-    <t>0.5746268656716418</t>
-  </si>
-  <si>
-    <t>0.43258426966292135</t>
-  </si>
-  <si>
-    <t>0.8034816118172586</t>
-  </si>
-  <si>
-    <t>0.966624685138539</t>
-  </si>
-  <si>
-    <t>0.7540229885057471</t>
-  </si>
-  <si>
-    <t>0.8239398819108964</t>
-  </si>
-  <si>
-    <t>0.8895972181976238</t>
-  </si>
-  <si>
-    <t>0.7927945583253713</t>
-  </si>
-  <si>
-    <t>0.8042511122095897</t>
-  </si>
-  <si>
-    <t>0.596000532623945</t>
-  </si>
-  <si>
-    <t>0.7705725714474658</t>
-  </si>
-  <si>
-    <t>0.7589967830136606</t>
-  </si>
-  <si>
-    <t>0.7921371832664303</t>
-  </si>
-  <si>
-    <t>0.2323943661971831</t>
-  </si>
-  <si>
-    <t>0.017403314917127072</t>
-  </si>
-  <si>
-    <t>0.6111111111111112</t>
-  </si>
-  <si>
-    <t>0.336734693877551</t>
-  </si>
-  <si>
-    <t>0.7884704173475475</t>
-  </si>
-  <si>
-    <t>0.44594594594594594</t>
-  </si>
-  <si>
-    <t>0.06829539144919489</t>
-  </si>
-  <si>
-    <t>0.8081549414489447</t>
-  </si>
-  <si>
-    <t>0.9234886649874056</t>
-  </si>
-  <si>
-    <t>0.5827586206896552</t>
-  </si>
-  <si>
-    <t>0.8526162790697674</t>
-  </si>
-  <si>
-    <t>0.8866384522370012</t>
-  </si>
-  <si>
-    <t>0.7941061191696344</t>
-  </si>
-  <si>
-    <t>0.7983193277310925</t>
-  </si>
-  <si>
-    <t>0.4667766547870696</t>
-  </si>
-  <si>
-    <t>0.7825612050565781</t>
-  </si>
-  <si>
-    <t>0.780378819549321</t>
-  </si>
-  <si>
-    <t>0.7950544306169415</t>
-  </si>
-  <si>
-    <t>0.03076923076923077</t>
-  </si>
-  <si>
-    <t>0.0018450184501845018</t>
-  </si>
-  <si>
-    <t>0.6666666666666666</t>
-  </si>
-  <si>
-    <t>0.05882352941176471</t>
-  </si>
-  <si>
-    <t>0.7494784274765824</t>
-  </si>
-  <si>
-    <t>0.28225806451612906</t>
-  </si>
-  <si>
-    <t>0.024770642201834864</t>
-  </si>
-  <si>
-    <t>0.5645161290322581</t>
-  </si>
-  <si>
-    <t>0.3763440860215054</t>
-  </si>
-  <si>
-    <t>0.7904224622669429</t>
-  </si>
-  <si>
-    <t>0.9791666666666666</t>
-  </si>
-  <si>
-    <t>0.8110236220472441</t>
-  </si>
-  <si>
-    <t>0.8202443280977313</t>
-  </si>
-  <si>
-    <t>0.8926875593542261</t>
-  </si>
-  <si>
-    <t>0.7806553477690289</t>
-  </si>
-  <si>
-    <t>0.8064250411861614</t>
-  </si>
-  <si>
-    <t>0.6440643238854249</t>
-  </si>
-  <si>
-    <t>0.777678106787882</t>
-  </si>
-  <si>
-    <t>0.7506538570595165</t>
-  </si>
-  <si>
-    <t>0.7783144273075159</t>
-  </si>
-  <si>
-    <t>0.15714285714285714</t>
-  </si>
-  <si>
-    <t>0.00931098696461825</t>
-  </si>
-  <si>
-    <t>0.6875</t>
-  </si>
-  <si>
-    <t>0.2558139534883721</t>
-  </si>
-  <si>
-    <t>0.7856544293695131</t>
-  </si>
-  <si>
-    <t>0.40601503759398494</t>
-  </si>
-  <si>
-    <t>0.05550416281221091</t>
-  </si>
-  <si>
-    <t>0.47368421052631576</t>
-  </si>
-  <si>
-    <t>0.43724696356275294</t>
-  </si>
-  <si>
-    <t>0.7901240149402182</t>
-  </si>
-  <si>
-    <t>0.9479277364505845</t>
-  </si>
-  <si>
-    <t>0.6446886446886447</t>
-  </si>
-  <si>
-    <t>0.8352059925093633</t>
-  </si>
-  <si>
-    <t>0.8880039820806372</t>
-  </si>
-  <si>
-    <t>0.7851187070103117</t>
-  </si>
-  <si>
-    <t>0.7973640856672158</t>
-  </si>
-  <si>
-    <t>0.5068678801326897</t>
-  </si>
-  <si>
-    <t>0.7785657651987734</t>
-  </si>
-  <si>
-    <t>0.7657162658814645</t>
-  </si>
-  <si>
-    <t>0.7857288446420791</t>
+    <t>0.5205625044326734</t>
+  </si>
+  <si>
+    <t>0.7919370705150587</t>
+  </si>
+  <si>
+    <t>0.7846436680489532</t>
+  </si>
+  <si>
+    <t>0.793242647765966</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.0027675276752767526</t>
+  </si>
+  <si>
+    <t>0.7252164348566562</t>
+  </si>
+  <si>
+    <t>0.20967741935483872</t>
+  </si>
+  <si>
+    <t>0.008256880733944955</t>
+  </si>
+  <si>
+    <t>0.7428571428571429</t>
+  </si>
+  <si>
+    <t>0.32704402515723274</t>
+  </si>
+  <si>
+    <t>0.7839338561704646</t>
+  </si>
+  <si>
+    <t>0.990625</t>
+  </si>
+  <si>
+    <t>0.8858267716535433</t>
+  </si>
+  <si>
+    <t>0.8086734693877551</t>
+  </si>
+  <si>
+    <t>0.8904494382022472</t>
+  </si>
+  <si>
+    <t>0.7662401574803149</t>
+  </si>
+  <si>
+    <t>0.8047775947281713</t>
+  </si>
+  <si>
+    <t>0.7016287747909363</t>
+  </si>
+  <si>
+    <t>0.7153548734155936</t>
+  </si>
+  <si>
+    <t>0.7375493573259096</t>
+  </si>
+  <si>
+    <t>0.763654436472492</t>
+  </si>
+  <si>
+    <t>0.22727272727272727</t>
+  </si>
+  <si>
+    <t>0.06265060240963856</t>
+  </si>
+  <si>
+    <t>0.2777777777777778</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.7251916757940854</t>
+  </si>
+  <si>
+    <t>0.34579439252336447</t>
+  </si>
+  <si>
+    <t>0.06411837237977805</t>
+  </si>
+  <si>
+    <t>0.4157303370786517</t>
+  </si>
+  <si>
+    <t>0.37755102040816324</t>
+  </si>
+  <si>
+    <t>0.8012722265116332</t>
+  </si>
+  <si>
+    <t>0.8824343015214384</t>
+  </si>
+  <si>
+    <t>0.6102564102564103</t>
+  </si>
+  <si>
+    <t>0.8428005284015853</t>
+  </si>
+  <si>
+    <t>0.8621621621621621</t>
+  </si>
+  <si>
+    <t>0.7443132248111501</t>
+  </si>
+  <si>
+    <t>0.7570806100217865</t>
+  </si>
+  <si>
+    <t>0.4941059950676134</t>
+  </si>
+  <si>
+    <t>0.7388587936233185</t>
+  </si>
+  <si>
+    <t>0.7469947738855303</t>
+  </si>
+  <si>
+    <t>0.749119234471771</t>
   </si>
 </sst>
 </file>
@@ -1270,14 +1267,15 @@
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1695,19 +1693,19 @@
         <v>78</v>
       </c>
       <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
         <v>79</v>
-      </c>
-      <c r="C35" t="s">
-        <v>80</v>
       </c>
       <c r="D35" t="s">
         <v>78</v>
       </c>
       <c r="E35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" t="s">
         <v>81</v>
-      </c>
-      <c r="F35" t="s">
-        <v>82</v>
       </c>
       <c r="G35" t="s">
         <v>19</v>
@@ -1715,22 +1713,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
         <v>83</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>84</v>
       </c>
-      <c r="C36" t="s">
-        <v>83</v>
-      </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s">
         <v>25</v>
@@ -1738,22 +1736,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s">
         <v>87</v>
       </c>
-      <c r="C37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" t="s">
-        <v>86</v>
-      </c>
       <c r="E37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s">
         <v>31</v>
@@ -1761,22 +1759,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
         <v>92</v>
       </c>
-      <c r="C38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" t="s">
-        <v>91</v>
-      </c>
       <c r="E38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G38" t="s">
         <v>37</v>
@@ -1817,22 +1815,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
         <v>97</v>
       </c>
-      <c r="C45" t="s">
-        <v>98</v>
-      </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" t="s">
         <v>99</v>
-      </c>
-      <c r="F45" t="s">
-        <v>100</v>
       </c>
       <c r="G45" t="s">
         <v>19</v>
@@ -1840,22 +1838,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" t="s">
         <v>101</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>102</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" t="s">
         <v>103</v>
       </c>
-      <c r="D46" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>104</v>
-      </c>
-      <c r="F46" t="s">
-        <v>105</v>
       </c>
       <c r="G46" t="s">
         <v>25</v>
@@ -1863,22 +1861,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" t="s">
         <v>106</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>107</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" t="s">
         <v>108</v>
       </c>
-      <c r="D47" t="s">
-        <v>106</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>109</v>
-      </c>
-      <c r="F47" t="s">
-        <v>110</v>
       </c>
       <c r="G47" t="s">
         <v>31</v>
@@ -1886,22 +1884,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" t="s">
         <v>111</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>112</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" t="s">
         <v>113</v>
       </c>
-      <c r="D48" t="s">
-        <v>111</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>114</v>
-      </c>
-      <c r="F48" t="s">
-        <v>115</v>
       </c>
       <c r="G48" t="s">
         <v>37</v>
@@ -1942,22 +1940,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" t="s">
         <v>116</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>117</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" t="s">
         <v>118</v>
       </c>
-      <c r="D55" t="s">
-        <v>116</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>119</v>
-      </c>
-      <c r="F55" t="s">
-        <v>120</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
@@ -1965,22 +1963,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" t="s">
         <v>121</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>122</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" t="s">
         <v>123</v>
       </c>
-      <c r="D56" t="s">
-        <v>121</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>124</v>
-      </c>
-      <c r="F56" t="s">
-        <v>125</v>
       </c>
       <c r="G56" t="s">
         <v>25</v>
@@ -1988,22 +1986,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" t="s">
         <v>126</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>127</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57" t="s">
         <v>128</v>
       </c>
-      <c r="D57" t="s">
-        <v>126</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>129</v>
-      </c>
-      <c r="F57" t="s">
-        <v>130</v>
       </c>
       <c r="G57" t="s">
         <v>31</v>
@@ -2011,22 +2009,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" t="s">
         <v>131</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>132</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" t="s">
         <v>133</v>
       </c>
-      <c r="D58" t="s">
-        <v>131</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>134</v>
-      </c>
-      <c r="F58" t="s">
-        <v>135</v>
       </c>
       <c r="G58" t="s">
         <v>37</v>
